--- a/Employee_Reports21/Bonifacio Arano Bayer Q0557.xlsx
+++ b/Employee_Reports21/Bonifacio Arano Bayer Q0557.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1076,11 +1076,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>-159</v>
+        <v>-160</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1122,11 +1122,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1168,11 +1168,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1204,11 +1204,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
